--- a/oracle/1/0017_DRE_Financeiro/DRE_GM.xlsx
+++ b/oracle/1/0017_DRE_Financeiro/DRE_GM.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\GitHub\test_several1\oracle\1\0017_DRE_Financeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E499D-2CA4-4C0D-B109-88B2EF536F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF50ABA-42E1-4D3C-A836-C2AFF0EC7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1200" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="244">
   <si>
     <t>Menu</t>
   </si>
@@ -774,16 +786,19 @@
   <si>
     <t>(=) RESULTADO APOS DEPRECIACAO E INVESTIMENTOS</t>
   </si>
+  <si>
+    <t>undefined</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1254,7 +1269,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
@@ -1268,10 +1283,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1310,7 +1325,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,7 +1334,7 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,13 +1343,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1358,7 +1373,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1385,10 +1400,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,7 +1415,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1409,7 +1424,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,16 +1439,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1442,7 +1457,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,13 +1466,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1762,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="10.5" outlineLevelRow="2" outlineLevelCol="3" x14ac:dyDescent="0.25"/>
@@ -16057,7 +16072,7 @@
       <c r="DN42" s="4"/>
       <c r="DO42" s="4"/>
     </row>
-    <row r="43" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="37" t="s">
         <v>82</v>
@@ -16408,7 +16423,7 @@
       <c r="DN43" s="4"/>
       <c r="DO43" s="4"/>
     </row>
-    <row r="44" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="37" t="s">
         <v>83</v>
@@ -16759,7 +16774,7 @@
       <c r="DN44" s="4"/>
       <c r="DO44" s="4"/>
     </row>
-    <row r="45" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="37" t="s">
         <v>84</v>
@@ -17110,7 +17125,7 @@
       <c r="DN45" s="4"/>
       <c r="DO45" s="4"/>
     </row>
-    <row r="46" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="37"/>
       <c r="C46" s="43">
@@ -17810,7 +17825,7 @@
       <c r="DN47" s="4"/>
       <c r="DO47" s="4"/>
     </row>
-    <row r="48" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="37" t="s">
         <v>86</v>
@@ -18161,7 +18176,7 @@
       <c r="DN48" s="4"/>
       <c r="DO48" s="4"/>
     </row>
-    <row r="49" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="37" t="s">
         <v>87</v>
@@ -18512,7 +18527,7 @@
       <c r="DN49" s="4"/>
       <c r="DO49" s="4"/>
     </row>
-    <row r="50" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="37"/>
       <c r="C50" s="24">
@@ -19212,7 +19227,7 @@
       <c r="DN51" s="4"/>
       <c r="DO51" s="4"/>
     </row>
-    <row r="52" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="37" t="s">
         <v>89</v>
@@ -19563,7 +19578,7 @@
       <c r="DN52" s="4"/>
       <c r="DO52" s="4"/>
     </row>
-    <row r="53" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="37" t="s">
         <v>90</v>
@@ -19914,7 +19929,7 @@
       <c r="DN53" s="4"/>
       <c r="DO53" s="4"/>
     </row>
-    <row r="54" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="37" t="s">
         <v>91</v>
@@ -20265,7 +20280,7 @@
       <c r="DN54" s="4"/>
       <c r="DO54" s="4"/>
     </row>
-    <row r="55" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="37"/>
       <c r="C55" s="24">
@@ -20965,7 +20980,7 @@
       <c r="DN56" s="4"/>
       <c r="DO56" s="4"/>
     </row>
-    <row r="57" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="37" t="s">
         <v>93</v>
@@ -21316,7 +21331,7 @@
       <c r="DN57" s="4"/>
       <c r="DO57" s="4"/>
     </row>
-    <row r="58" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="37" t="s">
         <v>94</v>
@@ -21667,7 +21682,7 @@
       <c r="DN58" s="4"/>
       <c r="DO58" s="4"/>
     </row>
-    <row r="59" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="37" t="s">
         <v>95</v>
@@ -22018,7 +22033,7 @@
       <c r="DN59" s="4"/>
       <c r="DO59" s="4"/>
     </row>
-    <row r="60" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="37"/>
       <c r="C60" s="24">
@@ -22718,7 +22733,7 @@
       <c r="DN61" s="4"/>
       <c r="DO61" s="4"/>
     </row>
-    <row r="62" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="37" t="s">
         <v>97</v>
@@ -23069,7 +23084,7 @@
       <c r="DN62" s="4"/>
       <c r="DO62" s="4"/>
     </row>
-    <row r="63" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="37" t="s">
         <v>98</v>
@@ -23420,7 +23435,7 @@
       <c r="DN63" s="4"/>
       <c r="DO63" s="4"/>
     </row>
-    <row r="64" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="37" t="s">
         <v>99</v>
@@ -23771,7 +23786,7 @@
       <c r="DN64" s="4"/>
       <c r="DO64" s="4"/>
     </row>
-    <row r="65" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="37" t="s">
         <v>100</v>
@@ -24122,7 +24137,7 @@
       <c r="DN65" s="4"/>
       <c r="DO65" s="4"/>
     </row>
-    <row r="66" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="37" t="s">
         <v>101</v>
@@ -24473,7 +24488,7 @@
       <c r="DN66" s="4"/>
       <c r="DO66" s="4"/>
     </row>
-    <row r="67" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="37" t="s">
         <v>102</v>
@@ -24824,7 +24839,7 @@
       <c r="DN67" s="4"/>
       <c r="DO67" s="4"/>
     </row>
-    <row r="68" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="37" t="s">
         <v>103</v>
@@ -25175,7 +25190,7 @@
       <c r="DN68" s="4"/>
       <c r="DO68" s="4"/>
     </row>
-    <row r="69" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="37" t="s">
         <v>104</v>
@@ -25526,7 +25541,7 @@
       <c r="DN69" s="4"/>
       <c r="DO69" s="4"/>
     </row>
-    <row r="70" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="37"/>
       <c r="C70" s="24">
@@ -26226,7 +26241,7 @@
       <c r="DN71" s="4"/>
       <c r="DO71" s="4"/>
     </row>
-    <row r="72" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="37" t="s">
         <v>106</v>
@@ -26577,7 +26592,7 @@
       <c r="DN72" s="4"/>
       <c r="DO72" s="4"/>
     </row>
-    <row r="73" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="37" t="s">
         <v>107</v>
@@ -26928,7 +26943,7 @@
       <c r="DN73" s="4"/>
       <c r="DO73" s="4"/>
     </row>
-    <row r="74" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="37" t="s">
         <v>108</v>
@@ -27279,7 +27294,7 @@
       <c r="DN74" s="4"/>
       <c r="DO74" s="4"/>
     </row>
-    <row r="75" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="37"/>
       <c r="C75" s="43">
@@ -27979,7 +27994,7 @@
       <c r="DN76" s="4"/>
       <c r="DO76" s="4"/>
     </row>
-    <row r="77" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="37" t="s">
         <v>110</v>
@@ -28330,7 +28345,7 @@
       <c r="DN77" s="4"/>
       <c r="DO77" s="4"/>
     </row>
-    <row r="78" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="37"/>
       <c r="C78" s="24">
@@ -29030,7 +29045,7 @@
       <c r="DN79" s="4"/>
       <c r="DO79" s="4"/>
     </row>
-    <row r="80" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="37" t="s">
         <v>112</v>
@@ -29381,7 +29396,7 @@
       <c r="DN80" s="4"/>
       <c r="DO80" s="4"/>
     </row>
-    <row r="81" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="37"/>
       <c r="C81" s="24">
@@ -30081,7 +30096,7 @@
       <c r="DN82" s="4"/>
       <c r="DO82" s="4"/>
     </row>
-    <row r="83" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
       <c r="B83" s="37" t="s">
         <v>114</v>
@@ -30432,7 +30447,7 @@
       <c r="DN83" s="4"/>
       <c r="DO83" s="4"/>
     </row>
-    <row r="84" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
       <c r="B84" s="37" t="s">
         <v>115</v>
@@ -78874,6 +78889,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="DA2:DF2"/>
+    <mergeCell ref="DG2:DL2"/>
+    <mergeCell ref="BQ2:BV2"/>
+    <mergeCell ref="BW2:CB2"/>
+    <mergeCell ref="CC2:CH2"/>
+    <mergeCell ref="CI2:CN2"/>
+    <mergeCell ref="CO2:CT2"/>
+    <mergeCell ref="CU2:CZ2"/>
     <mergeCell ref="BK2:BP2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:H2"/>
@@ -78886,15 +78909,27 @@
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AY2:BD2"/>
     <mergeCell ref="BE2:BJ2"/>
-    <mergeCell ref="DA2:DF2"/>
-    <mergeCell ref="DG2:DL2"/>
-    <mergeCell ref="BQ2:BV2"/>
-    <mergeCell ref="BW2:CB2"/>
-    <mergeCell ref="CC2:CH2"/>
-    <mergeCell ref="CI2:CN2"/>
-    <mergeCell ref="CO2:CT2"/>
-    <mergeCell ref="CU2:CZ2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B44642E-1903-4848-82D4-C22B4F912A2C}">
+  <dimension ref="F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/oracle/1/0017_DRE_Financeiro/DRE_GM.xlsx
+++ b/oracle/1/0017_DRE_Financeiro/DRE_GM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\GitHub\test_several1\oracle\1\0017_DRE_Financeiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9162a66f6c6ac234/Documentos/GitHub/test_several1/oracle/1/0017_DRE_Financeiro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF50ABA-42E1-4D3C-A836-C2AFF0EC7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0CF50ABA-42E1-4D3C-A836-C2AFF0EC7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA16588-5AB1-487C-B2F1-8E50FD182CE5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="10.5" outlineLevelRow="2" outlineLevelCol="3" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2731,7 @@
       <c r="DO4" s="4"/>
       <c r="DP4" s="4"/>
     </row>
-    <row r="5" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>46</v>
@@ -3082,7 +3082,7 @@
       <c r="DN5" s="4"/>
       <c r="DO5" s="4"/>
     </row>
-    <row r="6" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="29" t="s">
         <v>47</v>
@@ -3433,7 +3433,7 @@
       <c r="DN6" s="4"/>
       <c r="DO6" s="4"/>
     </row>
-    <row r="7" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="29" t="s">
         <v>48</v>
@@ -3784,7 +3784,7 @@
       <c r="DN7" s="4"/>
       <c r="DO7" s="4"/>
     </row>
-    <row r="8" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
         <v>49</v>
@@ -4135,7 +4135,7 @@
       <c r="DN8" s="4"/>
       <c r="DO8" s="4"/>
     </row>
-    <row r="9" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="s">
         <v>50</v>
@@ -4486,7 +4486,7 @@
       <c r="DN9" s="4"/>
       <c r="DO9" s="4"/>
     </row>
-    <row r="10" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="C10" s="24">
@@ -4835,7 +4835,7 @@
       <c r="DN10" s="4"/>
       <c r="DO10" s="4"/>
     </row>
-    <row r="11" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="24">
@@ -5184,7 +5184,7 @@
       <c r="DN11" s="4"/>
       <c r="DO11" s="4"/>
     </row>
-    <row r="12" spans="1:123" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:123" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>102</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="DN12" s="4"/>
       <c r="DO12" s="4"/>
     </row>
-    <row r="13" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="37" t="s">
         <v>52</v>
@@ -5888,7 +5888,7 @@
       <c r="DN13" s="4"/>
       <c r="DO13" s="4"/>
     </row>
-    <row r="14" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="37" t="s">
         <v>53</v>
@@ -6239,7 +6239,7 @@
       <c r="DN14" s="4"/>
       <c r="DO14" s="4"/>
     </row>
-    <row r="15" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="37" t="s">
         <v>54</v>
@@ -6590,7 +6590,7 @@
       <c r="DN15" s="4"/>
       <c r="DO15" s="4"/>
     </row>
-    <row r="16" spans="1:123" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:123" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="38" t="s">
         <v>55</v>
@@ -6941,7 +6941,7 @@
       <c r="DN16" s="4"/>
       <c r="DO16" s="4"/>
     </row>
-    <row r="17" spans="1:119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:119" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>56</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="DN18" s="4"/>
       <c r="DO18" s="4"/>
     </row>
-    <row r="19" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="39" t="s">
         <v>59</v>
@@ -7998,7 +7998,7 @@
       <c r="DN19" s="4"/>
       <c r="DO19" s="4"/>
     </row>
-    <row r="20" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="37" t="s">
         <v>60</v>
@@ -8349,7 +8349,7 @@
       <c r="DN20" s="4"/>
       <c r="DO20" s="4"/>
     </row>
-    <row r="21" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="37" t="s">
         <v>61</v>
@@ -8700,7 +8700,7 @@
       <c r="DN21" s="4"/>
       <c r="DO21" s="4"/>
     </row>
-    <row r="22" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="37" t="s">
         <v>62</v>
@@ -9051,7 +9051,7 @@
       <c r="DN22" s="4"/>
       <c r="DO22" s="4"/>
     </row>
-    <row r="23" spans="1:119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:119" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="37"/>
       <c r="C23" s="24">
@@ -10453,7 +10453,7 @@
       <c r="DN26" s="4"/>
       <c r="DO26" s="4"/>
     </row>
-    <row r="27" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="37" t="s">
         <v>66</v>
@@ -10804,7 +10804,7 @@
       <c r="DN27" s="4"/>
       <c r="DO27" s="4"/>
     </row>
-    <row r="28" spans="1:119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:119" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="33" t="s">
         <v>67</v>
@@ -11155,7 +11155,7 @@
       <c r="DN28" s="4"/>
       <c r="DO28" s="4"/>
     </row>
-    <row r="29" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="37" t="s">
         <v>68</v>
@@ -11506,7 +11506,7 @@
       <c r="DN29" s="4"/>
       <c r="DO29" s="4"/>
     </row>
-    <row r="30" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="37" t="s">
         <v>69</v>
@@ -11857,7 +11857,7 @@
       <c r="DN30" s="4"/>
       <c r="DO30" s="4"/>
     </row>
-    <row r="31" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="37" t="s">
         <v>70</v>
@@ -12208,7 +12208,7 @@
       <c r="DN31" s="4"/>
       <c r="DO31" s="4"/>
     </row>
-    <row r="32" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="37" t="s">
         <v>71</v>
@@ -12559,7 +12559,7 @@
       <c r="DN32" s="4"/>
       <c r="DO32" s="4"/>
     </row>
-    <row r="33" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="33" t="s">
         <v>72</v>
@@ -12910,7 +12910,7 @@
       <c r="DN33" s="4"/>
       <c r="DO33" s="4"/>
     </row>
-    <row r="34" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="37" t="s">
         <v>73</v>
@@ -13261,7 +13261,7 @@
       <c r="DN34" s="4"/>
       <c r="DO34" s="4"/>
     </row>
-    <row r="35" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="37" t="s">
         <v>74</v>
@@ -13612,7 +13612,7 @@
       <c r="DN35" s="4"/>
       <c r="DO35" s="4"/>
     </row>
-    <row r="36" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="37" t="s">
         <v>75</v>
@@ -13963,7 +13963,7 @@
       <c r="DN36" s="4"/>
       <c r="DO36" s="4"/>
     </row>
-    <row r="37" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="37" t="s">
         <v>76</v>
@@ -14314,7 +14314,7 @@
       <c r="DN37" s="4"/>
       <c r="DO37" s="4"/>
     </row>
-    <row r="38" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="37" t="s">
         <v>77</v>
@@ -14665,7 +14665,7 @@
       <c r="DN38" s="4"/>
       <c r="DO38" s="4"/>
     </row>
-    <row r="39" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
         <v>78</v>
@@ -15721,7 +15721,7 @@
       <c r="DO41" s="4"/>
       <c r="DP41" s="4"/>
     </row>
-    <row r="42" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
       <c r="B42" s="47" t="s">
         <v>81</v>
@@ -16072,7 +16072,7 @@
       <c r="DN42" s="4"/>
       <c r="DO42" s="4"/>
     </row>
-    <row r="43" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="37" t="s">
         <v>82</v>
@@ -16423,7 +16423,7 @@
       <c r="DN43" s="4"/>
       <c r="DO43" s="4"/>
     </row>
-    <row r="44" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="37" t="s">
         <v>83</v>
@@ -16774,7 +16774,7 @@
       <c r="DN44" s="4"/>
       <c r="DO44" s="4"/>
     </row>
-    <row r="45" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="37" t="s">
         <v>84</v>
@@ -17125,7 +17125,7 @@
       <c r="DN45" s="4"/>
       <c r="DO45" s="4"/>
     </row>
-    <row r="46" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="37"/>
       <c r="C46" s="43">
@@ -17474,7 +17474,7 @@
       <c r="DN46" s="4"/>
       <c r="DO46" s="4"/>
     </row>
-    <row r="47" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46"/>
       <c r="B47" s="47" t="s">
         <v>85</v>
@@ -17825,7 +17825,7 @@
       <c r="DN47" s="4"/>
       <c r="DO47" s="4"/>
     </row>
-    <row r="48" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="37" t="s">
         <v>86</v>
@@ -18176,7 +18176,7 @@
       <c r="DN48" s="4"/>
       <c r="DO48" s="4"/>
     </row>
-    <row r="49" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="37" t="s">
         <v>87</v>
@@ -18527,7 +18527,7 @@
       <c r="DN49" s="4"/>
       <c r="DO49" s="4"/>
     </row>
-    <row r="50" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="37"/>
       <c r="C50" s="24">
@@ -18876,7 +18876,7 @@
       <c r="DN50" s="4"/>
       <c r="DO50" s="4"/>
     </row>
-    <row r="51" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A51" s="46"/>
       <c r="B51" s="47" t="s">
         <v>88</v>
@@ -19227,7 +19227,7 @@
       <c r="DN51" s="4"/>
       <c r="DO51" s="4"/>
     </row>
-    <row r="52" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="37" t="s">
         <v>89</v>
@@ -19578,7 +19578,7 @@
       <c r="DN52" s="4"/>
       <c r="DO52" s="4"/>
     </row>
-    <row r="53" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="37" t="s">
         <v>90</v>
@@ -19929,7 +19929,7 @@
       <c r="DN53" s="4"/>
       <c r="DO53" s="4"/>
     </row>
-    <row r="54" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="37" t="s">
         <v>91</v>
@@ -20280,7 +20280,7 @@
       <c r="DN54" s="4"/>
       <c r="DO54" s="4"/>
     </row>
-    <row r="55" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="37"/>
       <c r="C55" s="24">
@@ -20629,7 +20629,7 @@
       <c r="DN55" s="4"/>
       <c r="DO55" s="4"/>
     </row>
-    <row r="56" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46"/>
       <c r="B56" s="47" t="s">
         <v>92</v>
@@ -20980,7 +20980,7 @@
       <c r="DN56" s="4"/>
       <c r="DO56" s="4"/>
     </row>
-    <row r="57" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="37" t="s">
         <v>93</v>
@@ -21331,7 +21331,7 @@
       <c r="DN57" s="4"/>
       <c r="DO57" s="4"/>
     </row>
-    <row r="58" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="37" t="s">
         <v>94</v>
@@ -21682,7 +21682,7 @@
       <c r="DN58" s="4"/>
       <c r="DO58" s="4"/>
     </row>
-    <row r="59" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="37" t="s">
         <v>95</v>
@@ -22033,7 +22033,7 @@
       <c r="DN59" s="4"/>
       <c r="DO59" s="4"/>
     </row>
-    <row r="60" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="37"/>
       <c r="C60" s="24">
@@ -22382,7 +22382,7 @@
       <c r="DN60" s="4"/>
       <c r="DO60" s="4"/>
     </row>
-    <row r="61" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46"/>
       <c r="B61" s="47" t="s">
         <v>96</v>
@@ -22733,7 +22733,7 @@
       <c r="DN61" s="4"/>
       <c r="DO61" s="4"/>
     </row>
-    <row r="62" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="37" t="s">
         <v>97</v>
@@ -23084,7 +23084,7 @@
       <c r="DN62" s="4"/>
       <c r="DO62" s="4"/>
     </row>
-    <row r="63" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="37" t="s">
         <v>98</v>
@@ -23435,7 +23435,7 @@
       <c r="DN63" s="4"/>
       <c r="DO63" s="4"/>
     </row>
-    <row r="64" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="37" t="s">
         <v>99</v>
@@ -23786,7 +23786,7 @@
       <c r="DN64" s="4"/>
       <c r="DO64" s="4"/>
     </row>
-    <row r="65" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="37" t="s">
         <v>100</v>
@@ -24137,7 +24137,7 @@
       <c r="DN65" s="4"/>
       <c r="DO65" s="4"/>
     </row>
-    <row r="66" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="37" t="s">
         <v>101</v>
@@ -24488,7 +24488,7 @@
       <c r="DN66" s="4"/>
       <c r="DO66" s="4"/>
     </row>
-    <row r="67" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="37" t="s">
         <v>102</v>
@@ -24839,7 +24839,7 @@
       <c r="DN67" s="4"/>
       <c r="DO67" s="4"/>
     </row>
-    <row r="68" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="37" t="s">
         <v>103</v>
@@ -25190,7 +25190,7 @@
       <c r="DN68" s="4"/>
       <c r="DO68" s="4"/>
     </row>
-    <row r="69" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="37" t="s">
         <v>104</v>
@@ -25541,7 +25541,7 @@
       <c r="DN69" s="4"/>
       <c r="DO69" s="4"/>
     </row>
-    <row r="70" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="37"/>
       <c r="C70" s="24">
@@ -25890,7 +25890,7 @@
       <c r="DN70" s="4"/>
       <c r="DO70" s="4"/>
     </row>
-    <row r="71" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46"/>
       <c r="B71" s="47" t="s">
         <v>105</v>
@@ -26241,7 +26241,7 @@
       <c r="DN71" s="4"/>
       <c r="DO71" s="4"/>
     </row>
-    <row r="72" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="37" t="s">
         <v>106</v>
@@ -26592,7 +26592,7 @@
       <c r="DN72" s="4"/>
       <c r="DO72" s="4"/>
     </row>
-    <row r="73" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="37" t="s">
         <v>107</v>
@@ -26943,7 +26943,7 @@
       <c r="DN73" s="4"/>
       <c r="DO73" s="4"/>
     </row>
-    <row r="74" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="37" t="s">
         <v>108</v>
@@ -27294,7 +27294,7 @@
       <c r="DN74" s="4"/>
       <c r="DO74" s="4"/>
     </row>
-    <row r="75" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="37"/>
       <c r="C75" s="43">
@@ -27643,7 +27643,7 @@
       <c r="DN75" s="4"/>
       <c r="DO75" s="4"/>
     </row>
-    <row r="76" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="46"/>
       <c r="B76" s="47" t="s">
         <v>109</v>
@@ -27994,7 +27994,7 @@
       <c r="DN76" s="4"/>
       <c r="DO76" s="4"/>
     </row>
-    <row r="77" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="37" t="s">
         <v>110</v>
@@ -28345,7 +28345,7 @@
       <c r="DN77" s="4"/>
       <c r="DO77" s="4"/>
     </row>
-    <row r="78" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="37"/>
       <c r="C78" s="24">
@@ -28694,7 +28694,7 @@
       <c r="DN78" s="4"/>
       <c r="DO78" s="4"/>
     </row>
-    <row r="79" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A79" s="46"/>
       <c r="B79" s="47" t="s">
         <v>111</v>
@@ -29045,7 +29045,7 @@
       <c r="DN79" s="4"/>
       <c r="DO79" s="4"/>
     </row>
-    <row r="80" spans="1:119" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="37" t="s">
         <v>112</v>
@@ -29396,7 +29396,7 @@
       <c r="DN80" s="4"/>
       <c r="DO80" s="4"/>
     </row>
-    <row r="81" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="37"/>
       <c r="C81" s="24">
@@ -29745,7 +29745,7 @@
       <c r="DN81" s="4"/>
       <c r="DO81" s="4"/>
     </row>
-    <row r="82" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="46"/>
       <c r="B82" s="47" t="s">
         <v>113</v>
@@ -30096,7 +30096,7 @@
       <c r="DN82" s="4"/>
       <c r="DO82" s="4"/>
     </row>
-    <row r="83" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
       <c r="B83" s="37" t="s">
         <v>114</v>
@@ -30447,7 +30447,7 @@
       <c r="DN83" s="4"/>
       <c r="DO83" s="4"/>
     </row>
-    <row r="84" spans="1:120" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
       <c r="B84" s="37" t="s">
         <v>115</v>
@@ -30798,7 +30798,7 @@
       <c r="DN84" s="4"/>
       <c r="DO84" s="4"/>
     </row>
-    <row r="85" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
       <c r="B85" s="37"/>
       <c r="C85" s="24">
@@ -31499,7 +31499,7 @@
       <c r="DO86" s="4"/>
       <c r="DP86" s="4"/>
     </row>
-    <row r="87" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>3040101</v>
       </c>
@@ -31852,7 +31852,7 @@
       <c r="DN87" s="4"/>
       <c r="DO87" s="4"/>
     </row>
-    <row r="88" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28">
         <v>2020102</v>
       </c>
@@ -32205,7 +32205,7 @@
       <c r="DN88" s="4"/>
       <c r="DO88" s="4"/>
     </row>
-    <row r="89" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="37"/>
       <c r="C89" s="43">
@@ -33257,7 +33257,7 @@
       <c r="DN91" s="4"/>
       <c r="DO91" s="4"/>
     </row>
-    <row r="92" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28"/>
       <c r="B92" s="37" t="s">
         <v>121</v>
@@ -33608,7 +33608,7 @@
       <c r="DN92" s="4"/>
       <c r="DO92" s="4"/>
     </row>
-    <row r="93" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28"/>
       <c r="B93" s="37" t="s">
         <v>122</v>
@@ -33959,7 +33959,7 @@
       <c r="DN93" s="4"/>
       <c r="DO93" s="4"/>
     </row>
-    <row r="94" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28"/>
       <c r="B94" s="37" t="s">
         <v>123</v>
@@ -34310,7 +34310,7 @@
       <c r="DN94" s="4"/>
       <c r="DO94" s="4"/>
     </row>
-    <row r="95" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28"/>
       <c r="B95" s="37" t="s">
         <v>124</v>
@@ -34661,7 +34661,7 @@
       <c r="DN95" s="4"/>
       <c r="DO95" s="4"/>
     </row>
-    <row r="96" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28"/>
       <c r="B96" s="37" t="s">
         <v>125</v>
@@ -35012,7 +35012,7 @@
       <c r="DN96" s="4"/>
       <c r="DO96" s="4"/>
     </row>
-    <row r="97" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28"/>
       <c r="B97" s="37" t="s">
         <v>126</v>
@@ -35363,7 +35363,7 @@
       <c r="DN97" s="4"/>
       <c r="DO97" s="4"/>
     </row>
-    <row r="98" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28"/>
       <c r="B98" s="37" t="s">
         <v>127</v>
@@ -35714,7 +35714,7 @@
       <c r="DN98" s="4"/>
       <c r="DO98" s="4"/>
     </row>
-    <row r="99" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28"/>
       <c r="B99" s="37" t="s">
         <v>128</v>
@@ -36065,7 +36065,7 @@
       <c r="DN99" s="4"/>
       <c r="DO99" s="4"/>
     </row>
-    <row r="100" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
       <c r="B100" s="37" t="s">
         <v>129</v>
@@ -36416,7 +36416,7 @@
       <c r="DN100" s="4"/>
       <c r="DO100" s="4"/>
     </row>
-    <row r="101" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="37" t="s">
         <v>130</v>
@@ -36767,7 +36767,7 @@
       <c r="DN101" s="4"/>
       <c r="DO101" s="4"/>
     </row>
-    <row r="102" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
       <c r="B102" s="37" t="s">
         <v>131</v>
@@ -37118,7 +37118,7 @@
       <c r="DN102" s="4"/>
       <c r="DO102" s="4"/>
     </row>
-    <row r="103" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28"/>
       <c r="B103" s="37" t="s">
         <v>132</v>
@@ -37469,7 +37469,7 @@
       <c r="DN103" s="4"/>
       <c r="DO103" s="4"/>
     </row>
-    <row r="104" spans="1:119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:119" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28"/>
       <c r="B104" s="37"/>
       <c r="C104" s="24">
@@ -38169,7 +38169,7 @@
       <c r="DN105" s="4"/>
       <c r="DO105" s="4"/>
     </row>
-    <row r="106" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
       <c r="B106" s="37" t="s">
         <v>134</v>
@@ -38520,7 +38520,7 @@
       <c r="DN106" s="4"/>
       <c r="DO106" s="4"/>
     </row>
-    <row r="107" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
       <c r="B107" s="37" t="s">
         <v>135</v>
@@ -38871,7 +38871,7 @@
       <c r="DN107" s="4"/>
       <c r="DO107" s="4"/>
     </row>
-    <row r="108" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28"/>
       <c r="B108" s="37" t="s">
         <v>136</v>
@@ -39222,7 +39222,7 @@
       <c r="DN108" s="4"/>
       <c r="DO108" s="4"/>
     </row>
-    <row r="109" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="37" t="s">
         <v>137</v>
@@ -39573,7 +39573,7 @@
       <c r="DN109" s="4"/>
       <c r="DO109" s="4"/>
     </row>
-    <row r="110" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
       <c r="B110" s="37" t="s">
         <v>138</v>
@@ -39924,7 +39924,7 @@
       <c r="DN110" s="4"/>
       <c r="DO110" s="4"/>
     </row>
-    <row r="111" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28"/>
       <c r="B111" s="37" t="s">
         <v>139</v>
@@ -40275,7 +40275,7 @@
       <c r="DN111" s="4"/>
       <c r="DO111" s="4"/>
     </row>
-    <row r="112" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28"/>
       <c r="B112" s="37" t="s">
         <v>140</v>
@@ -40626,7 +40626,7 @@
       <c r="DN112" s="4"/>
       <c r="DO112" s="4"/>
     </row>
-    <row r="113" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28"/>
       <c r="B113" s="37" t="s">
         <v>141</v>
@@ -40977,7 +40977,7 @@
       <c r="DN113" s="4"/>
       <c r="DO113" s="4"/>
     </row>
-    <row r="114" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28"/>
       <c r="B114" s="37" t="s">
         <v>142</v>
@@ -41328,7 +41328,7 @@
       <c r="DN114" s="4"/>
       <c r="DO114" s="4"/>
     </row>
-    <row r="115" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="28"/>
       <c r="B115" s="37" t="s">
         <v>143</v>
@@ -41679,7 +41679,7 @@
       <c r="DN115" s="4"/>
       <c r="DO115" s="4"/>
     </row>
-    <row r="116" spans="1:119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:119" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="37"/>
       <c r="C116" s="43">
@@ -42379,7 +42379,7 @@
       <c r="DN117" s="4"/>
       <c r="DO117" s="4"/>
     </row>
-    <row r="118" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28"/>
       <c r="B118" s="37" t="s">
         <v>145</v>
@@ -42730,7 +42730,7 @@
       <c r="DN118" s="4"/>
       <c r="DO118" s="4"/>
     </row>
-    <row r="119" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28"/>
       <c r="B119" s="37" t="s">
         <v>146</v>
@@ -43081,7 +43081,7 @@
       <c r="DN119" s="4"/>
       <c r="DO119" s="4"/>
     </row>
-    <row r="120" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28"/>
       <c r="B120" s="37" t="s">
         <v>147</v>
@@ -43432,7 +43432,7 @@
       <c r="DN120" s="4"/>
       <c r="DO120" s="4"/>
     </row>
-    <row r="121" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28"/>
       <c r="B121" s="37" t="s">
         <v>148</v>
@@ -43783,7 +43783,7 @@
       <c r="DN121" s="4"/>
       <c r="DO121" s="4"/>
     </row>
-    <row r="122" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28"/>
       <c r="B122" s="37" t="s">
         <v>149</v>
@@ -44134,7 +44134,7 @@
       <c r="DN122" s="4"/>
       <c r="DO122" s="4"/>
     </row>
-    <row r="123" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28"/>
       <c r="B123" s="37" t="s">
         <v>150</v>
@@ -44485,7 +44485,7 @@
       <c r="DN123" s="4"/>
       <c r="DO123" s="4"/>
     </row>
-    <row r="124" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="52"/>
       <c r="B124" s="53" t="s">
         <v>151</v>
@@ -44836,7 +44836,7 @@
       <c r="DN124" s="4"/>
       <c r="DO124" s="4"/>
     </row>
-    <row r="125" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="52"/>
       <c r="B125" s="53" t="s">
         <v>152</v>
@@ -45187,7 +45187,7 @@
       <c r="DN125" s="4"/>
       <c r="DO125" s="4"/>
     </row>
-    <row r="126" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28"/>
       <c r="B126" s="37" t="s">
         <v>153</v>
@@ -45538,7 +45538,7 @@
       <c r="DN126" s="4"/>
       <c r="DO126" s="4"/>
     </row>
-    <row r="127" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="54"/>
       <c r="B127" s="55" t="s">
         <v>154</v>
@@ -45889,7 +45889,7 @@
       <c r="DN127" s="4"/>
       <c r="DO127" s="4"/>
     </row>
-    <row r="128" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28"/>
       <c r="B128" s="37" t="s">
         <v>155</v>
@@ -46240,7 +46240,7 @@
       <c r="DN128" s="4"/>
       <c r="DO128" s="4"/>
     </row>
-    <row r="129" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28"/>
       <c r="B129" s="37" t="s">
         <v>156</v>
@@ -46591,7 +46591,7 @@
       <c r="DN129" s="4"/>
       <c r="DO129" s="4"/>
     </row>
-    <row r="130" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28"/>
       <c r="B130" s="37" t="s">
         <v>157</v>
@@ -46942,7 +46942,7 @@
       <c r="DN130" s="4"/>
       <c r="DO130" s="4"/>
     </row>
-    <row r="131" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28"/>
       <c r="B131" s="37" t="s">
         <v>158</v>
@@ -47293,7 +47293,7 @@
       <c r="DN131" s="4"/>
       <c r="DO131" s="4"/>
     </row>
-    <row r="132" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28"/>
       <c r="B132" s="37" t="s">
         <v>159</v>
@@ -47644,7 +47644,7 @@
       <c r="DN132" s="4"/>
       <c r="DO132" s="4"/>
     </row>
-    <row r="133" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="28"/>
       <c r="B133" s="37" t="s">
         <v>160</v>
@@ -47995,7 +47995,7 @@
       <c r="DN133" s="4"/>
       <c r="DO133" s="4"/>
     </row>
-    <row r="134" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28"/>
       <c r="B134" s="37" t="s">
         <v>161</v>
@@ -48346,7 +48346,7 @@
       <c r="DN134" s="4"/>
       <c r="DO134" s="4"/>
     </row>
-    <row r="135" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28"/>
       <c r="B135" s="37" t="s">
         <v>162</v>
@@ -48697,7 +48697,7 @@
       <c r="DN135" s="4"/>
       <c r="DO135" s="4"/>
     </row>
-    <row r="136" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28"/>
       <c r="B136" s="37" t="s">
         <v>163</v>
@@ -49048,7 +49048,7 @@
       <c r="DN136" s="4"/>
       <c r="DO136" s="4"/>
     </row>
-    <row r="137" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
       <c r="B137" s="37" t="s">
         <v>164</v>
@@ -49399,7 +49399,7 @@
       <c r="DN137" s="4"/>
       <c r="DO137" s="4"/>
     </row>
-    <row r="138" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28"/>
       <c r="B138" s="37" t="s">
         <v>165</v>
@@ -49750,7 +49750,7 @@
       <c r="DN138" s="4"/>
       <c r="DO138" s="4"/>
     </row>
-    <row r="139" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
       <c r="B139" s="37" t="s">
         <v>166</v>
@@ -50101,7 +50101,7 @@
       <c r="DN139" s="4"/>
       <c r="DO139" s="4"/>
     </row>
-    <row r="140" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28"/>
       <c r="B140" s="37" t="s">
         <v>167</v>
@@ -50452,7 +50452,7 @@
       <c r="DN140" s="4"/>
       <c r="DO140" s="4"/>
     </row>
-    <row r="141" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28"/>
       <c r="B141" s="37" t="s">
         <v>168</v>
@@ -50803,7 +50803,7 @@
       <c r="DN141" s="4"/>
       <c r="DO141" s="4"/>
     </row>
-    <row r="142" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="28"/>
       <c r="B142" s="37" t="s">
         <v>169</v>
@@ -51154,7 +51154,7 @@
       <c r="DN142" s="4"/>
       <c r="DO142" s="4"/>
     </row>
-    <row r="143" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="28"/>
       <c r="B143" s="37" t="s">
         <v>170</v>
@@ -51505,7 +51505,7 @@
       <c r="DN143" s="4"/>
       <c r="DO143" s="4"/>
     </row>
-    <row r="144" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28"/>
       <c r="B144" s="37" t="s">
         <v>171</v>
@@ -51856,7 +51856,7 @@
       <c r="DN144" s="4"/>
       <c r="DO144" s="4"/>
     </row>
-    <row r="145" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28"/>
       <c r="B145" s="37" t="s">
         <v>172</v>
@@ -52207,7 +52207,7 @@
       <c r="DN145" s="4"/>
       <c r="DO145" s="4"/>
     </row>
-    <row r="146" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28"/>
       <c r="B146" s="37" t="s">
         <v>173</v>
@@ -52558,7 +52558,7 @@
       <c r="DN146" s="4"/>
       <c r="DO146" s="4"/>
     </row>
-    <row r="147" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28"/>
       <c r="B147" s="37" t="s">
         <v>174</v>
@@ -52909,7 +52909,7 @@
       <c r="DN147" s="4"/>
       <c r="DO147" s="4"/>
     </row>
-    <row r="148" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28"/>
       <c r="B148" s="37" t="s">
         <v>175</v>
@@ -53260,7 +53260,7 @@
       <c r="DN148" s="4"/>
       <c r="DO148" s="4"/>
     </row>
-    <row r="149" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28"/>
       <c r="B149" s="37" t="s">
         <v>176</v>
@@ -53611,7 +53611,7 @@
       <c r="DN149" s="4"/>
       <c r="DO149" s="4"/>
     </row>
-    <row r="150" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28"/>
       <c r="B150" s="37" t="s">
         <v>177</v>
@@ -53962,7 +53962,7 @@
       <c r="DN150" s="4"/>
       <c r="DO150" s="4"/>
     </row>
-    <row r="151" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28"/>
       <c r="B151" s="37" t="s">
         <v>178</v>
@@ -54313,7 +54313,7 @@
       <c r="DN151" s="4"/>
       <c r="DO151" s="4"/>
     </row>
-    <row r="152" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="28"/>
       <c r="B152" s="37" t="s">
         <v>179</v>
@@ -54664,7 +54664,7 @@
       <c r="DN152" s="4"/>
       <c r="DO152" s="4"/>
     </row>
-    <row r="153" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28"/>
       <c r="B153" s="37" t="s">
         <v>180</v>
@@ -55015,7 +55015,7 @@
       <c r="DN153" s="4"/>
       <c r="DO153" s="4"/>
     </row>
-    <row r="154" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="28"/>
       <c r="B154" s="37" t="s">
         <v>181</v>
@@ -55366,7 +55366,7 @@
       <c r="DN154" s="4"/>
       <c r="DO154" s="4"/>
     </row>
-    <row r="155" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="28"/>
       <c r="B155" s="37" t="s">
         <v>182</v>
@@ -55717,7 +55717,7 @@
       <c r="DN155" s="4"/>
       <c r="DO155" s="4"/>
     </row>
-    <row r="156" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="28"/>
       <c r="B156" s="37" t="s">
         <v>183</v>
@@ -56068,7 +56068,7 @@
       <c r="DN156" s="4"/>
       <c r="DO156" s="4"/>
     </row>
-    <row r="157" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28"/>
       <c r="B157" s="37" t="s">
         <v>184</v>
@@ -56419,7 +56419,7 @@
       <c r="DN157" s="4"/>
       <c r="DO157" s="4"/>
     </row>
-    <row r="158" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="28"/>
       <c r="B158" s="37" t="s">
         <v>185</v>
@@ -56770,7 +56770,7 @@
       <c r="DN158" s="4"/>
       <c r="DO158" s="4"/>
     </row>
-    <row r="159" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28"/>
       <c r="B159" s="37" t="s">
         <v>186</v>
@@ -57121,7 +57121,7 @@
       <c r="DN159" s="4"/>
       <c r="DO159" s="4"/>
     </row>
-    <row r="160" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="28"/>
       <c r="B160" s="37" t="s">
         <v>187</v>
@@ -57472,7 +57472,7 @@
       <c r="DN160" s="4"/>
       <c r="DO160" s="4"/>
     </row>
-    <row r="161" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="28"/>
       <c r="B161" s="37" t="s">
         <v>188</v>
@@ -57823,7 +57823,7 @@
       <c r="DN161" s="4"/>
       <c r="DO161" s="4"/>
     </row>
-    <row r="162" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A162" s="28"/>
       <c r="B162" s="37" t="s">
         <v>189</v>
@@ -58174,7 +58174,7 @@
       <c r="DN162" s="4"/>
       <c r="DO162" s="4"/>
     </row>
-    <row r="163" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A163" s="28"/>
       <c r="B163" s="37" t="s">
         <v>190</v>
@@ -58525,7 +58525,7 @@
       <c r="DN163" s="4"/>
       <c r="DO163" s="4"/>
     </row>
-    <row r="164" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A164" s="28"/>
       <c r="B164" s="37" t="s">
         <v>191</v>
@@ -58876,7 +58876,7 @@
       <c r="DN164" s="4"/>
       <c r="DO164" s="4"/>
     </row>
-    <row r="165" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="28"/>
       <c r="B165" s="37" t="s">
         <v>192</v>
@@ -59227,7 +59227,7 @@
       <c r="DN165" s="4"/>
       <c r="DO165" s="4"/>
     </row>
-    <row r="166" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="28"/>
       <c r="B166" s="37" t="s">
         <v>193</v>
@@ -59578,7 +59578,7 @@
       <c r="DN166" s="4"/>
       <c r="DO166" s="4"/>
     </row>
-    <row r="167" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A167" s="28"/>
       <c r="B167" s="37"/>
       <c r="C167" s="24">
@@ -60982,7 +60982,7 @@
       <c r="DN170" s="4"/>
       <c r="DO170" s="4"/>
     </row>
-    <row r="171" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A171" s="28"/>
       <c r="B171" s="37" t="s">
         <v>197</v>
@@ -61333,7 +61333,7 @@
       <c r="DN171" s="4"/>
       <c r="DO171" s="4"/>
     </row>
-    <row r="172" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="28"/>
       <c r="B172" s="37" t="s">
         <v>198</v>
@@ -61684,7 +61684,7 @@
       <c r="DN172" s="4"/>
       <c r="DO172" s="4"/>
     </row>
-    <row r="173" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="28"/>
       <c r="B173" s="37" t="s">
         <v>199</v>
@@ -62035,7 +62035,7 @@
       <c r="DN173" s="4"/>
       <c r="DO173" s="4"/>
     </row>
-    <row r="174" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="28"/>
       <c r="B174" s="37" t="s">
         <v>200</v>
@@ -62386,7 +62386,7 @@
       <c r="DN174" s="4"/>
       <c r="DO174" s="4"/>
     </row>
-    <row r="175" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="28"/>
       <c r="B175" s="37" t="s">
         <v>201</v>
@@ -62737,7 +62737,7 @@
       <c r="DN175" s="4"/>
       <c r="DO175" s="4"/>
     </row>
-    <row r="176" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A176" s="28"/>
       <c r="B176" s="37"/>
       <c r="C176" s="24">
@@ -63437,7 +63437,7 @@
       <c r="DN177" s="4"/>
       <c r="DO177" s="4"/>
     </row>
-    <row r="178" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
       <c r="B178" s="37" t="s">
         <v>203</v>
@@ -63788,7 +63788,7 @@
       <c r="DN178" s="4"/>
       <c r="DO178" s="4"/>
     </row>
-    <row r="179" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="28"/>
       <c r="B179" s="37" t="s">
         <v>204</v>
@@ -64139,7 +64139,7 @@
       <c r="DN179" s="4"/>
       <c r="DO179" s="4"/>
     </row>
-    <row r="180" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A180" s="28"/>
       <c r="B180" s="37" t="s">
         <v>205</v>
@@ -64490,7 +64490,7 @@
       <c r="DN180" s="4"/>
       <c r="DO180" s="4"/>
     </row>
-    <row r="181" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="28"/>
       <c r="B181" s="37" t="s">
         <v>206</v>
@@ -64841,7 +64841,7 @@
       <c r="DN181" s="4"/>
       <c r="DO181" s="4"/>
     </row>
-    <row r="182" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="28"/>
       <c r="B182" s="37" t="s">
         <v>207</v>
@@ -65192,7 +65192,7 @@
       <c r="DN182" s="4"/>
       <c r="DO182" s="4"/>
     </row>
-    <row r="183" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="28"/>
       <c r="B183" s="37" t="s">
         <v>208</v>
@@ -65543,7 +65543,7 @@
       <c r="DN183" s="4"/>
       <c r="DO183" s="4"/>
     </row>
-    <row r="184" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="28"/>
       <c r="B184" s="37" t="s">
         <v>209</v>
@@ -65894,7 +65894,7 @@
       <c r="DN184" s="4"/>
       <c r="DO184" s="4"/>
     </row>
-    <row r="185" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="28"/>
       <c r="B185" s="37" t="s">
         <v>210</v>
@@ -66245,7 +66245,7 @@
       <c r="DN185" s="4"/>
       <c r="DO185" s="4"/>
     </row>
-    <row r="186" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="28"/>
       <c r="B186" s="37" t="s">
         <v>211</v>
@@ -66596,7 +66596,7 @@
       <c r="DN186" s="4"/>
       <c r="DO186" s="4"/>
     </row>
-    <row r="187" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="28"/>
       <c r="B187" s="37" t="s">
         <v>212</v>
@@ -66947,7 +66947,7 @@
       <c r="DN187" s="4"/>
       <c r="DO187" s="4"/>
     </row>
-    <row r="188" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="28"/>
       <c r="B188" s="37" t="s">
         <v>213</v>
@@ -67298,7 +67298,7 @@
       <c r="DN188" s="4"/>
       <c r="DO188" s="4"/>
     </row>
-    <row r="189" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="28"/>
       <c r="B189" s="37" t="s">
         <v>214</v>
@@ -67649,7 +67649,7 @@
       <c r="DN189" s="4"/>
       <c r="DO189" s="4"/>
     </row>
-    <row r="190" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="28"/>
       <c r="B190" s="37" t="s">
         <v>215</v>
@@ -68000,7 +68000,7 @@
       <c r="DN190" s="4"/>
       <c r="DO190" s="4"/>
     </row>
-    <row r="191" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="28"/>
       <c r="B191" s="37" t="s">
         <v>216</v>
@@ -68351,7 +68351,7 @@
       <c r="DN191" s="4"/>
       <c r="DO191" s="4"/>
     </row>
-    <row r="192" spans="1:119" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:119" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="28"/>
       <c r="B192" s="37" t="s">
         <v>217</v>
@@ -68702,7 +68702,7 @@
       <c r="DN192" s="4"/>
       <c r="DO192" s="4"/>
     </row>
-    <row r="193" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A193" s="28"/>
       <c r="B193" s="37"/>
       <c r="C193" s="24">
@@ -69754,7 +69754,7 @@
       <c r="DN195" s="4"/>
       <c r="DO195" s="4"/>
     </row>
-    <row r="196" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="28"/>
       <c r="B196" s="37" t="s">
         <v>220</v>
@@ -70105,7 +70105,7 @@
       <c r="DN196" s="4"/>
       <c r="DO196" s="4"/>
     </row>
-    <row r="197" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A197" s="28"/>
       <c r="B197" s="37" t="s">
         <v>221</v>
@@ -70456,7 +70456,7 @@
       <c r="DN197" s="4"/>
       <c r="DO197" s="4"/>
     </row>
-    <row r="198" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="28"/>
       <c r="B198" s="37" t="s">
         <v>222</v>
@@ -70807,7 +70807,7 @@
       <c r="DN198" s="4"/>
       <c r="DO198" s="4"/>
     </row>
-    <row r="199" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A199" s="28"/>
       <c r="B199" s="37"/>
       <c r="C199" s="24">
@@ -71507,7 +71507,7 @@
       <c r="DN200" s="4"/>
       <c r="DO200" s="4"/>
     </row>
-    <row r="201" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="28"/>
       <c r="B201" s="37" t="s">
         <v>224</v>
@@ -71858,7 +71858,7 @@
       <c r="DN201" s="4"/>
       <c r="DO201" s="4"/>
     </row>
-    <row r="202" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="28"/>
       <c r="B202" s="37" t="s">
         <v>225</v>
@@ -72209,7 +72209,7 @@
       <c r="DN202" s="4"/>
       <c r="DO202" s="4"/>
     </row>
-    <row r="203" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A203" s="28"/>
       <c r="B203" s="37" t="s">
         <v>226</v>
@@ -72560,7 +72560,7 @@
       <c r="DN203" s="4"/>
       <c r="DO203" s="4"/>
     </row>
-    <row r="204" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="28"/>
       <c r="B204" s="37" t="s">
         <v>227</v>
@@ -72911,7 +72911,7 @@
       <c r="DN204" s="4"/>
       <c r="DO204" s="4"/>
     </row>
-    <row r="205" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A205" s="28"/>
       <c r="B205" s="37" t="s">
         <v>228</v>
@@ -73262,7 +73262,7 @@
       <c r="DN205" s="4"/>
       <c r="DO205" s="4"/>
     </row>
-    <row r="206" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="28"/>
       <c r="B206" s="37" t="s">
         <v>229</v>
@@ -73613,7 +73613,7 @@
       <c r="DN206" s="4"/>
       <c r="DO206" s="4"/>
     </row>
-    <row r="207" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A207" s="28"/>
       <c r="B207" s="37" t="s">
         <v>230</v>
@@ -73964,7 +73964,7 @@
       <c r="DN207" s="4"/>
       <c r="DO207" s="4"/>
     </row>
-    <row r="208" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A208" s="42"/>
       <c r="B208" s="37"/>
       <c r="C208" s="43">
@@ -75717,7 +75717,7 @@
       <c r="DO212" s="4"/>
       <c r="DP212" s="4"/>
     </row>
-    <row r="213" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A213" s="28"/>
       <c r="B213" s="37" t="s">
         <v>234</v>
@@ -76068,7 +76068,7 @@
       <c r="DN213" s="4"/>
       <c r="DO213" s="4"/>
     </row>
-    <row r="214" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A214" s="28"/>
       <c r="B214" s="37" t="s">
         <v>235</v>
@@ -76419,7 +76419,7 @@
       <c r="DN214" s="4"/>
       <c r="DO214" s="4"/>
     </row>
-    <row r="215" spans="1:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:120" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A215" s="32"/>
       <c r="B215" s="33" t="s">
         <v>236</v>
@@ -77123,7 +77123,7 @@
       <c r="DO216" s="4"/>
       <c r="DP216" s="4"/>
     </row>
-    <row r="217" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A217" s="22"/>
       <c r="B217" s="39" t="s">
         <v>238</v>
@@ -77474,7 +77474,7 @@
       <c r="DN217" s="4"/>
       <c r="DO217" s="4"/>
     </row>
-    <row r="218" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A218" s="28"/>
       <c r="B218" s="37" t="s">
         <v>239</v>
@@ -77825,7 +77825,7 @@
       <c r="DN218" s="4"/>
       <c r="DO218" s="4"/>
     </row>
-    <row r="219" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A219" s="30"/>
       <c r="B219" s="38" t="s">
         <v>240</v>
@@ -78176,7 +78176,7 @@
       <c r="DN219" s="4"/>
       <c r="DO219" s="4"/>
     </row>
-    <row r="220" spans="1:120" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:120" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A220" s="42"/>
       <c r="B220" s="38" t="s">
         <v>241</v>
@@ -78527,7 +78527,7 @@
       <c r="DN220" s="4"/>
       <c r="DO220" s="4"/>
     </row>
-    <row r="221" spans="1:120" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:120" ht="15.75" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="63"/>
       <c r="B221" s="64" t="s">
         <v>242</v>
@@ -78889,14 +78889,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="DA2:DF2"/>
-    <mergeCell ref="DG2:DL2"/>
-    <mergeCell ref="BQ2:BV2"/>
-    <mergeCell ref="BW2:CB2"/>
-    <mergeCell ref="CC2:CH2"/>
-    <mergeCell ref="CI2:CN2"/>
-    <mergeCell ref="CO2:CT2"/>
-    <mergeCell ref="CU2:CZ2"/>
     <mergeCell ref="BK2:BP2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:H2"/>
@@ -78909,6 +78901,14 @@
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AY2:BD2"/>
     <mergeCell ref="BE2:BJ2"/>
+    <mergeCell ref="DA2:DF2"/>
+    <mergeCell ref="DG2:DL2"/>
+    <mergeCell ref="BQ2:BV2"/>
+    <mergeCell ref="BW2:CB2"/>
+    <mergeCell ref="CC2:CH2"/>
+    <mergeCell ref="CI2:CN2"/>
+    <mergeCell ref="CO2:CT2"/>
+    <mergeCell ref="CU2:CZ2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
